--- a/aug_pc_result/2026_Feb_14_14_51_29_d_separation_spearman_pc_gt_graph_AdaSyn_100_3802491/ori_pc_raw_eval_res.xlsx
+++ b/aug_pc_result/2026_Feb_14_14_51_29_d_separation_spearman_pc_gt_graph_AdaSyn_100_3802491/ori_pc_raw_eval_res.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CausalLearning\code\aug_pc_result\2026_Feb_14_14_51_29_d_separation_spearman_pc_gt_graph_AdaSyn_100_3802491\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D2AE112-9E94-4C14-8FBF-0305F80D2764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A6DE21D-2D09-41BE-9027-EC6F87C8DA02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -511,7 +511,7 @@
   <dimension ref="A1:AD257"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A219" workbookViewId="0">
-      <selection activeCell="V234" sqref="V234"/>
+      <selection activeCell="N229" sqref="N229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
